--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -7,18 +7,22 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист5" sheetId="5" r:id="rId1"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
+    <sheet name="Саша" sheetId="7" r:id="rId1"/>
+    <sheet name="Саша1" sheetId="8" r:id="rId2"/>
+    <sheet name="Дима" sheetId="9" r:id="rId3"/>
+    <sheet name="Дима1" sheetId="11" r:id="rId4"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId5"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId8"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="49">
   <si>
     <t>Ti</t>
   </si>
@@ -141,6 +145,30 @@
   </si>
   <si>
     <t>Погрешность</t>
+  </si>
+  <si>
+    <t>Саша</t>
+  </si>
+  <si>
+    <t>Дима</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sum(y)</t>
+  </si>
+  <si>
+    <t>SSF1</t>
+  </si>
+  <si>
+    <t>SSF2</t>
   </si>
 </sst>
 </file>
@@ -515,10 +543,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f>I4*I4</f>
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:O4" si="0">J4*J4</f>
+        <v>289</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M9" si="1">I5*I5</f>
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N9" si="2">J5*J5</f>
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O9" si="3">K5*K5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <f>SUM(C4:C6)</f>
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.3333333333333286</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.3333333333333357</v>
+      </c>
+      <c r="G9">
+        <f>SUM(C7:C9)</f>
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="F11">
+        <f>5+8+8</f>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <f>17+6+4</f>
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <f>8+10+15</f>
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M4:O9)</f>
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="F12">
+        <f>6+4+8</f>
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f>4+5+6</f>
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <f>10+8+6</f>
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>SUM(I4:K9)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <f>M11-M12^2/(J11*J12*J13)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <f>(G6^2+G9^2)/(J12*J13)-M12^2/(J14)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16">
+        <f>(C11^2+C12^2+C13^2)/(J13*J11)-M12^2/(J14)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <f>M11-(F11^2+G11^2+H11^2+F12^2+G12^2+H12^2)/3</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46.666666666666686</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.3333333333333375</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.66508313539192443</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.65854721877092026</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3.325834530413013</v>
+      </c>
+      <c r="M18">
+        <f>M14-M15-M16-M17</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.1045130641330168</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.36863357173043537</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.1028210151304032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>140.33333333333331</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14.033333333333331</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="M20">
+        <f>32*16/148</f>
+        <v>3.4594594594594597</v>
+      </c>
+      <c r="N20">
+        <f>31*15/(148*2)</f>
+        <v>1.5709459459459461</v>
+      </c>
+      <c r="O20">
+        <f>7*12/(148*5)</f>
+        <v>0.11351351351351352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>218</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17.400000000000006</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.55414012738853535</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.70926104497733267</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.38823290869587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>57.600000000000009</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>57.600000000000009</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.3375796178343977</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.3603962145309873E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.708647422176786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>31.399999999999991</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.8499999999999979</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3">
+        <v>106.4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,13 +1439,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>5.3333333333333286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,13 +1456,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="E6" s="2">
-        <v>31</v>
+        <v>12.333333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,13 +1473,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,13 +1507,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
-        <v>5.333333333333333</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E9" s="2">
-        <v>1.3333333333333357</v>
+        <v>34.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +1537,7 @@
         <v>6.5</v>
       </c>
       <c r="E11" s="2">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,13 +1548,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="E12" s="2">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -697,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,19 +1607,19 @@
         <v>38</v>
       </c>
       <c r="B18" s="2">
-        <v>46.666666666666686</v>
+        <v>13.333333333333343</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>9.3333333333333375</v>
+        <v>2.6666666666666687</v>
       </c>
       <c r="E18" s="2">
-        <v>0.66508313539192443</v>
+        <v>0.16913319238900648</v>
       </c>
       <c r="F18" s="2">
-        <v>0.65854721877092026</v>
+        <v>0.96827048308676278</v>
       </c>
       <c r="G18" s="2">
         <v>3.325834530413013</v>
@@ -762,19 +1630,19 @@
         <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="E19" s="2">
-        <v>1.1045130641330168</v>
+        <v>0.66596194503171247</v>
       </c>
       <c r="F19" s="2">
-        <v>0.36863357173043537</v>
+        <v>0.53515767124689384</v>
       </c>
       <c r="G19" s="2">
         <v>4.1028210151304032</v>
@@ -785,13 +1653,13 @@
         <v>40</v>
       </c>
       <c r="B20" s="2">
-        <v>140.33333333333331</v>
+        <v>157.66666666666666</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>14.033333333333331</v>
+        <v>15.766666666666666</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -811,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3">
         <v>17</v>
@@ -826,252 +1694,904 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
+      <c r="C10" s="2">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>25.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11.400000000000006</v>
+      </c>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
+      <c r="D16" s="2">
+        <v>2.8500000000000014</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.4695393759286822E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.98266162147155522</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.38823290869587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.6745913818722308E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.87802234985835392</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.708647422176786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>134.6</v>
+      </c>
+      <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>78</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>4.6428571428571432</v>
-      </c>
-      <c r="F13">
-        <v>1.275292625011111E-2</v>
-      </c>
-      <c r="G13">
-        <v>3.0983912121407795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>112</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D18" s="2">
+        <v>33.65</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>190</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
+      <c r="B20" s="3">
+        <v>146.9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.3333333333333286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.3333333333333286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E9" s="2">
+        <v>34.333333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>13.333333333333343</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.6666666666666687</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.16913319238900648</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.96827048308676278</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3.325834530413013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.66596194503171247</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.53515767124689384</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.1028210151304032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>157.66666666666666</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15.766666666666666</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>192</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>4.6428571428571432</v>
+      </c>
+      <c r="F13">
+        <v>1.275292625011111E-2</v>
+      </c>
+      <c r="G13">
+        <v>3.0983912121407795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -1524,7 +3044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1536,7 +3056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>Ti</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>SSF2</t>
+  </si>
+  <si>
+    <t>T^2/(n*k1*k2)</t>
+  </si>
+  <si>
+    <t>SSF12</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F12</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -230,11 +245,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -242,6 +328,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,7 +644,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +655,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -593,24 +691,28 @@
       <c r="E4" s="2">
         <v>39</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>17</v>
       </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="M4">
+      <c r="K4" s="8">
+        <v>8</v>
+      </c>
+      <c r="L4" s="5">
+        <f>SUM(I4:K6)</f>
+        <v>81</v>
+      </c>
+      <c r="M4" s="6">
         <f>I4*I4</f>
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:O4" si="0">J4*J4</f>
         <v>289</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
@@ -631,24 +733,25 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="5"/>
+      <c r="M5" s="9">
         <f t="shared" ref="M5:M9" si="1">I5*I5</f>
         <v>64</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <f t="shared" ref="N5:N9" si="2">J5*J5</f>
         <v>36</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="11">
         <f t="shared" ref="O5:O9" si="3">K5*K5</f>
         <v>100</v>
       </c>
@@ -669,28 +772,25 @@
       <c r="E6" s="2">
         <v>31</v>
       </c>
-      <c r="G6">
-        <f>SUM(C4:C6)</f>
-        <v>81</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="9">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="11">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="5"/>
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="11">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
@@ -711,24 +811,28 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="11">
+        <v>8</v>
+      </c>
+      <c r="L7" s="5">
+        <f>SUM(I7:K9)</f>
+        <v>57</v>
+      </c>
+      <c r="M7" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="11">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
@@ -749,29 +853,30 @@
       <c r="E8" s="2">
         <v>6.3333333333333286</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="9">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="5"/>
+      <c r="M8" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="10">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="11">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -787,28 +892,25 @@
       <c r="E9" s="2">
         <v>1.3333333333333357</v>
       </c>
-      <c r="G9">
-        <f>SUM(C7:C9)</f>
-        <v>57</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="12">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="M9">
+      <c r="J9" s="13">
+        <v>6</v>
+      </c>
+      <c r="K9" s="14">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="13">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="14">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -819,6 +921,18 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="I10">
+        <f>SUM(I4:I6)</f>
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:K11" si="4">SUM(J4:J6)</f>
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -836,30 +950,17 @@
       <c r="E11" s="2">
         <v>3.1</v>
       </c>
-      <c r="F11">
-        <f>5+8+8</f>
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <f>17+6+4</f>
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <f>8+10+15</f>
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
+      <c r="I11">
+        <f>SUM(I7:I9)</f>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <f>SUM(M4:O9)</f>
-        <v>1276</v>
+        <f t="shared" ref="J11:K11" si="5">SUM(J7:J9)</f>
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -878,31 +979,6 @@
       <c r="E12" s="2">
         <v>24.8</v>
       </c>
-      <c r="F12">
-        <f>6+4+8</f>
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <f>4+5+6</f>
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <f>10+8+6</f>
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f>SUM(I4:K9)</f>
-        <v>138</v>
-      </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -921,46 +997,65 @@
         <v>9.5</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M4:O9)</f>
+        <v>1276</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <f>M11-M12^2/(J11*J12*J13)</f>
-        <v>218</v>
+        <f>SUM(I4:K9)</f>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <f>(G6^2+G9^2)/(J12*J13)-M12^2/(J14)</f>
-        <v>32</v>
+        <f>M14^2/(J15*J13*J14)</f>
+        <v>1058</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <f>(C11^2+C12^2+C13^2)/(J13*J11)-M12^2/(J14)</f>
-        <v>31</v>
+        <f>M13-M15</f>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -986,11 +1081,18 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <f>M11-(F11^2+G11^2+H11^2+F12^2+G12^2+H12^2)/3</f>
-        <v>148</v>
+        <f>(L4^2+L7^2)/(J15*J14)-M15</f>
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17">
+        <f>M17*12/((J13-1)*M20)</f>
+        <v>2.5945945945945947</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1015,9 +1117,19 @@
       <c r="G18" s="2">
         <v>3.325834530413013</v>
       </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
       <c r="M18">
-        <f>M14-M15-M16-M17</f>
-        <v>7</v>
+        <f>((I10+I11)^2+(J10+J11)^2+(K10+K11)^2)/(J15*J13)-M15</f>
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18">
+        <f>M18*12/((J14-1)*M20)</f>
+        <v>1.2567567567567568</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1042,6 +1154,20 @@
       <c r="G19" s="2">
         <v>4.1028210151304032</v>
       </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <f>M16-M17-M18-M20</f>
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19">
+        <f>M19*12/((J14-1)*M20)</f>
+        <v>0.28378378378378377</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1059,17 +1185,12 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
+      <c r="L20" t="s">
+        <v>5</v>
+      </c>
       <c r="M20">
-        <f>32*16/148</f>
-        <v>3.4594594594594597</v>
-      </c>
-      <c r="N20">
-        <f>31*15/(148*2)</f>
-        <v>1.5709459459459461</v>
-      </c>
-      <c r="O20">
-        <f>7*12/(148*5)</f>
-        <v>0.11351351351351352</v>
+        <f>M13-(I10^2+I11^2+J10^2+J11^2+K10^2+K11^2)/J15</f>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1097,6 +1218,10 @@
       <c r="G22" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L7:L9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\ЛИМН\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="16280" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="7" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId8"/>
     <sheet name="Лист3" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -328,9 +333,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -340,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -349,6 +354,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,15 +655,15 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -675,7 +683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -691,33 +699,33 @@
       <c r="E4" s="2">
         <v>39</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>17</v>
       </c>
-      <c r="K4" s="8">
-        <v>8</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="7">
+        <v>8</v>
+      </c>
+      <c r="L4" s="14">
         <f>SUM(I4:K6)</f>
         <v>81</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f>I4*I4</f>
         <v>25</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" ref="N4:O4" si="0">J4*J4</f>
         <v>289</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -733,30 +741,30 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="I5" s="9">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="I5" s="8">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10">
         <v>10</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="9">
+      <c r="L5" s="14"/>
+      <c r="M5" s="8">
         <f t="shared" ref="M5:M9" si="1">I5*I5</f>
         <v>64</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <f t="shared" ref="N5:N9" si="2">J5*J5</f>
         <v>36</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <f t="shared" ref="O5:O9" si="3">K5*K5</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -772,30 +780,30 @@
       <c r="E6" s="2">
         <v>31</v>
       </c>
-      <c r="I6" s="9">
-        <v>8</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="8">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9">
         <v>4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>15</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="9">
+      <c r="L6" s="14"/>
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -811,33 +819,33 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="9">
-        <v>6</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="8">
+        <v>6</v>
+      </c>
+      <c r="J7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="11">
-        <v>8</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="10">
+        <v>8</v>
+      </c>
+      <c r="L7" s="14">
         <f>SUM(I7:K9)</f>
         <v>57</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -853,30 +861,30 @@
       <c r="E8" s="2">
         <v>6.3333333333333286</v>
       </c>
-      <c r="I8" s="9">
-        <v>8</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="8">
+        <v>8</v>
+      </c>
+      <c r="J8" s="9">
         <v>5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>10</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="9">
+      <c r="L8" s="14"/>
+      <c r="M8" s="8">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -892,30 +900,30 @@
       <c r="E9" s="2">
         <v>1.3333333333333357</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>4</v>
       </c>
-      <c r="J9" s="13">
-        <v>6</v>
-      </c>
-      <c r="K9" s="14">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="12">
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13">
+        <v>6</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -926,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:K11" si="4">SUM(J4:J6)</f>
+        <f t="shared" ref="J10:K10" si="4">SUM(J4:J6)</f>
         <v>27</v>
       </c>
       <c r="K10">
@@ -934,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -963,7 +971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -980,7 +988,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
         <v>44</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I15" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1058,7 +1066,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>2.5945945945945947</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>1.2567567567567568</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>0.28378378378378377</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1202,7 +1210,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1235,15 +1243,15 @@
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1328,7 +1336,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1345,14 +1353,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>17</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1386,12 +1394,12 @@
         <v>11.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>6.38823290869587</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>7.708647422176786</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1485,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1486,7 +1494,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1514,15 +1522,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>5.3333333333333286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>12.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>6.3333333333333286</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1641,14 +1649,14 @@
         <v>34.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1699,12 +1707,12 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>3.325834530413013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>4.1028210151304032</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1790,7 +1798,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1799,7 +1807,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1827,15 +1835,15 @@
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1937,14 +1945,14 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1961,7 +1969,7 @@
         <v>25.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1978,12 +1986,12 @@
         <v>11.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2029,7 +2037,7 @@
         <v>6.38823290869587</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>7.708647422176786</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2069,7 +2077,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2078,7 +2086,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2106,15 +2114,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>5.3333333333333286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>12.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2224,7 @@
         <v>6.3333333333333286</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2233,14 +2241,14 @@
         <v>34.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2291,12 +2299,12 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>3.325834530413013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>4.1028210151304032</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2382,7 +2390,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2391,7 +2399,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2419,9 +2427,9 @@
       <selection activeCell="J3" sqref="J3:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +2588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J9">
         <v>4</v>
       </c>
@@ -2635,12 +2643,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2663,7 +2671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +2694,7 @@
         <v>3.0983912121407795</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2724,9 +2732,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>3</v>
@@ -2744,7 +2752,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>2</v>
@@ -2762,7 +2770,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2790,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -2802,7 +2810,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2830,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>24</v>
       </c>
@@ -2842,7 +2850,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2856,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2894,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2896,7 +2904,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <f>B8*B8/A4</f>
@@ -2921,7 +2929,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2936,7 +2944,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2959,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2974,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f t="shared" ref="B14:E19" si="0">B1*B1</f>
@@ -2988,7 +2996,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -3010,7 +3018,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -3032,7 +3040,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -3054,7 +3062,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -3076,7 +3084,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -3098,7 +3106,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3108,7 +3116,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <f>SUM(B14:B20)</f>
@@ -3133,7 +3141,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3143,7 +3151,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3153,7 +3161,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3175,7 +3183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3187,7 +3195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\ЛИМН\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="16280" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="7" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId8"/>
     <sheet name="Лист3" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
   <si>
     <t>Ti</t>
   </si>
@@ -405,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,19 +646,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -683,7 +678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -725,7 +720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -764,7 +759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -803,7 +798,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -845,7 +840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -884,7 +879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -923,7 +918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -942,7 +937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -971,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -988,7 +983,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
         <v>44</v>
       </c>
@@ -1033,7 +1028,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="I15" t="s">
         <v>45</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1098,7 @@
         <v>2.5945945945945947</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>1.2567567567567568</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>0.28378378378378377</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1210,7 +1205,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1243,15 +1238,15 @@
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -1285,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1353,14 +1348,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>17</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1394,12 +1389,12 @@
         <v>11.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1445,7 +1440,7 @@
         <v>6.38823290869587</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1468,7 +1463,7 @@
         <v>7.708647422176786</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1485,7 +1480,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1494,7 +1489,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1516,21 +1511,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1580,8 +1575,11 @@
       <c r="E5" s="2">
         <v>5.3333333333333286</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1597,8 +1595,33 @@
       <c r="E6" s="2">
         <v>12.333333333333343</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" s="14">
+        <f>SUM(K6:M8)</f>
+        <v>72</v>
+      </c>
+      <c r="O6" s="5">
+        <f>K6*K6</f>
+        <v>25</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" ref="P6:Q11" si="0">L6*L6</f>
+        <v>64</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1614,8 +1637,30 @@
       <c r="E7" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="8">
+        <f t="shared" ref="O7:O11" si="1">K7*K7</f>
+        <v>36</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1631,8 +1676,30 @@
       <c r="E8" s="2">
         <v>6.3333333333333286</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1648,15 +1715,62 @@
       <c r="E9" s="2">
         <v>34.333333333333329</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9" s="14">
+        <f>SUM(K9:M11)</f>
+        <v>72</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1672,8 +1786,30 @@
       <c r="E11" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1689,8 +1825,20 @@
       <c r="E12" s="2">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <f>SUM(K6:K8)</f>
+        <v>21</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:M12" si="2">SUM(L6:L8)</f>
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1706,13 +1854,53 @@
       <c r="E13" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <f>SUM(K9:K11)</f>
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:M13" si="3">SUM(L9:L11)</f>
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15">
+        <f>SUM(O6:Q11)</f>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>SUM(K6:M11)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1734,8 +1922,21 @@
       <c r="G17" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17">
+        <f>O16^2/(L17*L15*L16)</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1757,8 +1958,21 @@
       <c r="G18" s="2">
         <v>3.325834530413013</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>O15-O17</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1780,8 +1994,22 @@
       <c r="G19" s="2">
         <v>4.1028210151304032</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19">
+        <f>(N6^2+N9^2)/(L17*L16)-O17</f>
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <f>O19*12/((L15-1)*O22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1797,8 +2025,22 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <f>((K12+K13)^2+(L12+L13)^2+(M12+M13)^2)/(L17*L15)-O17</f>
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20">
+        <f>O20*12/((L16-1)*O22)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1806,8 +2048,22 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21">
+        <f>O18-O19-O20-O22</f>
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21">
+        <f>O21*12/((L16-1)*O22)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1821,8 +2077,19 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
+      <c r="N22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <f>O15-(K12^2+K13^2+L12^2+L13^2+M12^2+M13^2)/L17</f>
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="N9:N11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1835,15 +2102,15 @@
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +2127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -1877,7 +2144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -1894,7 +2161,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1911,7 +2178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -1928,7 +2195,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1945,14 +2212,14 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1969,7 +2236,7 @@
         <v>25.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1986,12 +2253,12 @@
         <v>11.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2304,7 @@
         <v>6.38823290869587</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2060,7 +2327,7 @@
         <v>7.708647422176786</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2344,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2086,7 +2353,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2114,15 +2381,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -2156,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2173,7 +2440,7 @@
         <v>5.3333333333333286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2190,7 +2457,7 @@
         <v>12.333333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2207,7 +2474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2224,7 +2491,7 @@
         <v>6.3333333333333286</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2241,14 +2508,14 @@
         <v>34.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2265,7 +2532,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2282,7 +2549,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2299,12 +2566,12 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2350,7 +2617,7 @@
         <v>3.325834530413013</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2373,7 +2640,7 @@
         <v>4.1028210151304032</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2657,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2399,7 +2666,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2424,12 +2691,12 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L9"/>
+      <selection activeCell="N4" sqref="N4:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2448,7 +2715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2483,7 +2750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2553,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +2855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2623,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="J9">
         <v>4</v>
       </c>
@@ -2643,12 +2910,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2671,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2961,7 @@
         <v>3.0983912121407795</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2708,7 +2975,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2999,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
@@ -3183,7 +3450,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3195,7 +3462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Лабы/ЛИМН/LIMN.xlsx
+++ b/Лабы/ЛИМН/LIMN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Саша" sheetId="7" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,21 +1511,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1620,8 +1620,12 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V6" s="14"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1659,8 +1663,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V7" s="14"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1698,8 +1706,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V8" s="14"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1740,8 +1752,12 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V9" s="14"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1769,8 +1785,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="14"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1808,8 +1828,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V11" s="14"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>43</v>
       </c>
@@ -1882,7 +1906,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2086,9 +2110,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="N9:N11"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V9:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2099,7 +2125,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
